--- a/medicine/Pharmacie/Voie_cutanée/Voie_cutanée.xlsx
+++ b/medicine/Pharmacie/Voie_cutanée/Voie_cutanée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Voie_cutan%C3%A9e</t>
+          <t>Voie_cutanée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la liste des termes normalisés de la Direction Européenne de la Qualité du Médicament, la voie cutanée est une voie d'administration de médicaments au niveau de la peau, en vue d’une action locale. La voie permettant une action générale s'appelle voie transdermique ou percutanée [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la liste des termes normalisés de la Direction Européenne de la Qualité du Médicament, la voie cutanée est une voie d'administration de médicaments au niveau de la peau, en vue d’une action locale. La voie permettant une action générale s'appelle voie transdermique ou percutanée .
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Voie_cutan%C3%A9e</t>
+          <t>Voie_cutanée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Formes galéniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Différentes formes galéniques sont utilisées pour administrer des médicaments par voie cutanée[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Différentes formes galéniques sont utilisées pour administrer des médicaments par voie cutanée : 
 De la plus active à la moins active, ces formes sont classées comme suit : pommade, crème puis lotion. 
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Voie_cutan%C3%A9e</t>
+          <t>Voie_cutanée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Avantages et inconvénients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'administration des médicaments par voie cutanée a les avantages et les inconvénients suivants :
 avantages :
